--- a/load/Launcher/shortcut_setting/shortcut_set.xlsx
+++ b/load/Launcher/shortcut_setting/shortcut_set.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1540" yWindow="2773" windowWidth="18493" windowHeight="11487" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -18,38 +19,22 @@
   <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999633777886288"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999633777886288"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -61,33 +46,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -170,44 +147,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -234,15 +211,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -269,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -281,142 +256,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -428,308 +427,290 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
-  <cols>
-    <col width="17.41015625" customWidth="1" min="1" max="1"/>
-    <col width="53.46875" customWidth="1" min="2" max="2"/>
-    <col width="57.46875" customWidth="1" min="3" max="3"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Display_Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Icon_Path</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>EXE_Path</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\PC.svg</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Others\PC.lnk</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Recycle</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\Recycle.svg</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Others\Recycle Bin.lnk</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>HI75</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\HI75.svg</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>E:\Softwares\Hi75\OemDrv.exe</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>X9</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\X9.svg</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>E:\Softwares\x9_mouse\X9 游戏鼠标.exe</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>EZ</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\EZ.ico</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>C:\Program Files (x86)\Sangfor\SSL\EasyConnect\EasyConnect.exe</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Clash</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\Clash.png</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>E:\Softwares\clash_verge\Clash Verge.exe</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Notion</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\Notion.ico</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>C:\Users\am\AppData\Local\Programs\Notion\Notion.exe</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Edge</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\Edge.svg</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>C:\Program Files (x86)\Microsoft\Edge\Application\msedge.exe</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>VSCode</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\VSCode.svg</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>E:\Softwares\Microsoft VS Code\Code.exe</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Pycharm</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\Pycharm.ico</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>E:\Softwares\PyCharm 2024.2.1\bin\pycharm64.exe</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>VS</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\VS.svg</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>E:\Softwares\VS2022Community\IDE\Common7\IDE\devenv.exe</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>RStudio</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\RStudio.svg</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>E:\Softwares\RStudio\rstudio.exe</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>QQ</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\QQ.svg</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>E:\Softwares\QQ\QQ.exe</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>WeChat</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\WeChat.svg</t>
         </is>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>E:\Softwares\WeChat\WeChat.exe</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Sunlogin</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\Sunlogin.svg</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>E:\Softwares\Sunlogin\SunloginClient\SunloginClient.exe</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>RD</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Shortcut Setting\buttons\RD.svg</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>E:\Super Launcher\load\Others\Remote Desktop.lnk</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>